--- a/DB.xlsx
+++ b/DB.xlsx
@@ -561,7 +561,7 @@
         <v xml:space="preserve">Прохорова </v>
       </c>
       <c r="B7" s="1" t="str">
-        <v/>
+        <v>Екатерина</v>
       </c>
       <c r="C7" s="1" t="str">
         <v>Николаевна</v>
